--- a/SubSpecieData.xlsx
+++ b/SubSpecieData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Tipologia</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>DataSet</t>
+  </si>
+  <si>
+    <t>Cascade-Forward Neural Network</t>
+  </si>
+  <si>
+    <t>tansig</t>
+  </si>
+  <si>
+    <t>trainrp</t>
+  </si>
+  <si>
+    <t>[0.7 0.15 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>./Tema 1 - RN/Folhas_1</t>
   </si>
 </sst>
 </file>
@@ -488,7 +506,7 @@
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +578,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0.28526031399069679</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>99</v>
+      </c>
+      <c r="M5">
+        <v>75.757575757575751</v>
+      </c>
+      <c r="N5">
+        <v>71.717171717171709</v>
+      </c>
+    </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>

--- a/SubSpecieData.xlsx
+++ b/SubSpecieData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Neural-Network---Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Neural-Network---Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2479C044-3CF0-4895-BBFE-5A265331EF39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
   <si>
     <t>Tipologia</t>
   </si>
@@ -62,28 +63,49 @@
     <t>DataSet</t>
   </si>
   <si>
+    <t>Feed-Forward Neural Network</t>
+  </si>
+  <si>
+    <t>tansig</t>
+  </si>
+  <si>
+    <t>trainrp</t>
+  </si>
+  <si>
+    <t>[0.7 0.15 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>./Tema 1 - RN/Folhas_1</t>
+  </si>
+  <si>
+    <t>logsig</t>
+  </si>
+  <si>
+    <t>radbasn</t>
+  </si>
+  <si>
+    <t>traingd</t>
+  </si>
+  <si>
+    <t>trainoss</t>
+  </si>
+  <si>
+    <t>Pattern Recognition Neural Network</t>
+  </si>
+  <si>
     <t>Cascade-Forward Neural Network</t>
   </si>
   <si>
-    <t>tansig</t>
-  </si>
-  <si>
-    <t>trainrp</t>
-  </si>
-  <si>
-    <t>[0.7 0.15 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>./Tema 1 - RN/Folhas_1</t>
+    <t>Function Fitting Neural Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +247,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Saída" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:N5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="I5">
-        <v>0.28526031399069679</v>
+        <v>8.3452220887944625E-3</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -613,15 +635,790 @@
         <v>99</v>
       </c>
       <c r="M5">
+        <v>43.43434343434344</v>
+      </c>
+      <c r="N5">
+        <v>35.353535353535356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>7.2003948093180472E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>42.424242424242422</v>
+      </c>
+      <c r="N6">
+        <v>26.262626262626267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>7.5241281864430552E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>37.373737373737377</v>
+      </c>
+      <c r="N7">
+        <v>14.14141414141414</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>8.0155015686314765E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>99</v>
+      </c>
+      <c r="M8">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>7.818781154526451E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>99</v>
+      </c>
+      <c r="M9">
+        <v>42.424242424242422</v>
+      </c>
+      <c r="N9">
+        <v>28.28282828282828</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>8.667244853622906E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>99</v>
+      </c>
+      <c r="M10">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="N10">
+        <v>2.0202020202020203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>8.7506372030804712E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>31.313131313131315</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>8.2122219827365003E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+      <c r="M12">
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="N12">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>7.9872764657381457E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>99</v>
+      </c>
+      <c r="M13">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="N13">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>8.0441543245989462E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>99</v>
+      </c>
+      <c r="M14">
+        <v>37.373737373737377</v>
+      </c>
+      <c r="N14">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>3.399799174116383E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>76.767676767676761</v>
+      </c>
+      <c r="N15">
+        <v>71.717171717171709</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>3.5344243618560825E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="N16">
+        <v>71.717171717171709</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>7.7777264594088812E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>99</v>
+      </c>
+      <c r="M17">
         <v>75.757575757575751</v>
       </c>
-      <c r="N5">
+      <c r="N17">
         <v>71.717171717171709</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>8.1356720824651979E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="M18">
+        <v>15.151515151515152</v>
+      </c>
+      <c r="N18">
+        <v>2.0202020202020203</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>4.8214035231770862E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>99</v>
+      </c>
+      <c r="M19">
+        <v>74.747474747474755</v>
+      </c>
+      <c r="N19">
+        <v>71.717171717171709</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>1.0109291019627566E-2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>99</v>
+      </c>
+      <c r="M20">
+        <v>48.484848484848484</v>
+      </c>
+      <c r="N20">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>9.5892648814716736E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>99</v>
+      </c>
+      <c r="M21">
+        <v>49.494949494949495</v>
+      </c>
+      <c r="N21">
+        <v>37.373737373737377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>9.4943258990122931E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>99</v>
+      </c>
+      <c r="M22">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N22">
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>8.9683126178184223E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23">
+        <v>99</v>
+      </c>
+      <c r="M23">
+        <v>7.0707070707070701</v>
+      </c>
+      <c r="N23">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>8.4859199501869705E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>99</v>
+      </c>
+      <c r="M24">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N24">
+        <v>15.151515151515152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SubSpecieData.xlsx
+++ b/SubSpecieData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Neural-Network---Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2479C044-3CF0-4895-BBFE-5A265331EF39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D5A7A17-F3D1-42AD-B0A5-0776FBC536DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:N24"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
